--- a/t/format_test_sheet.xlsx
+++ b/t/format_test_sheet.xlsx
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>文字列</t>
+  </si>
+  <si>
+    <t>biginteger</t>
   </si>
 </sst>
 </file>
@@ -214,6 +217,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c t="s" s="1" r="A11">
+        <v>14</v>
+      </c>
+      <c s="1" r="B11">
+        <v>1.25702689E8</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/t/format_test_sheet.xlsx
+++ b/t/format_test_sheet.xlsx
@@ -57,32 +57,31 @@
   <si>
     <t>biginteger</t>
   </si>
+  <si>
+    <t>custom number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[BLUE]#,##0.00_);[RED](#,##0.00);0.00;&quot;sales &quot;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font/>
-    <font/>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="2">
@@ -103,17 +102,18 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
+    <xf fillId="0" xfId="0" numFmtId="14" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1"/>
+    <xf fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="14" borderId="1" applyFont="1" fontId="2" applyNumberFormat="1">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="165" borderId="1" applyFont="1" fontId="0" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="3" applyNumberFormat="1">
-      <alignment/>
-    </xf>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -123,7 +123,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -132,12 +132,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" customWidth="1" max="1" width="14.43"/>
     <col min="2" customWidth="1" max="2" width="32.57"/>
+    <col min="3" customWidth="1" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="1" r="1" ht="15.75">
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
@@ -145,7 +147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="1" r="2" ht="15.75">
       <c t="s" s="1" r="A2">
         <v>2</v>
       </c>
@@ -153,7 +155,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="3">
+    <row customHeight="1" r="3" ht="15.75">
       <c t="s" s="1" r="A3">
         <v>3</v>
       </c>
@@ -161,7 +163,7 @@
         <v>-3.0</v>
       </c>
     </row>
-    <row r="4">
+    <row customHeight="1" r="4" ht="15.75">
       <c t="s" s="1" r="A4">
         <v>4</v>
       </c>
@@ -169,7 +171,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="1" r="5" ht="15.75">
       <c t="s" s="1" r="A5">
         <v>5</v>
       </c>
@@ -177,7 +179,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="6">
+    <row customHeight="1" r="6" ht="15.75">
       <c t="s" s="1" r="A6">
         <v>6</v>
       </c>
@@ -185,7 +187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row customHeight="1" r="7" ht="15.75">
       <c t="s" s="1" r="A7">
         <v>8</v>
       </c>
@@ -193,7 +195,7 @@
         <v>41775.0</v>
       </c>
     </row>
-    <row r="8">
+    <row customHeight="1" r="8" ht="15.75">
       <c t="s" s="1" r="A8">
         <v>9</v>
       </c>
@@ -201,7 +203,7 @@
         <v>41775.375</v>
       </c>
     </row>
-    <row r="9">
+    <row customHeight="1" r="9" ht="15.75">
       <c t="s" s="1" r="A9">
         <v>10</v>
       </c>
@@ -209,7 +211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row customHeight="1" r="10" ht="15.75">
       <c t="s" s="1" r="A10">
         <v>12</v>
       </c>
@@ -217,13 +219,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row customHeight="1" r="11" ht="15.75">
       <c t="s" s="1" r="A11">
         <v>14</v>
       </c>
       <c s="1" r="B11">
         <v>1.25702689E8</v>
       </c>
+    </row>
+    <row customHeight="1" r="12" ht="15.75">
+      <c t="s" s="4" r="A12">
+        <v>15</v>
+      </c>
+      <c s="5" r="B12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row customHeight="1" r="13" ht="15.75">
+      <c s="6" r="B13"/>
+    </row>
+    <row customHeight="1" r="14" ht="15.75">
+      <c s="6" r="B14"/>
+    </row>
+    <row customHeight="1" r="15" ht="15.75">
+      <c s="6" r="B15"/>
+    </row>
+    <row customHeight="1" r="16" ht="15.75">
+      <c s="6" r="B16"/>
+    </row>
+    <row customHeight="1" r="17" ht="15.75">
+      <c s="6" r="B17"/>
+    </row>
+    <row customHeight="1" r="18" ht="15.75">
+      <c s="6" r="B18"/>
+    </row>
+    <row customHeight="1" r="19" ht="15.75">
+      <c s="6" r="B19"/>
+    </row>
+    <row customHeight="1" r="20" ht="15.75">
+      <c s="6" r="B20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/t/format_test_sheet.xlsx
+++ b/t/format_test_sheet.xlsx
@@ -59,6 +59,36 @@
   </si>
   <si>
     <t>custom number</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>00.7</t>
+  </si>
+  <si>
+    <t>string like float</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>string like integer</t>
+  </si>
+  <si>
+    <t>70.0</t>
   </si>
 </sst>
 </file>
@@ -102,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf fillId="0" xfId="0" numFmtId="14" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1"/>
@@ -111,6 +141,9 @@
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="165" borderId="1" applyFont="1" fontId="0" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0">
       <alignment/>
     </xf>
     <xf fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0"/>
@@ -236,28 +269,53 @@
       </c>
     </row>
     <row customHeight="1" r="13" ht="15.75">
-      <c s="6" r="B13"/>
+      <c t="s" s="4" r="A13">
+        <v>16</v>
+      </c>
+      <c t="s" s="6" r="B13">
+        <v>17</v>
+      </c>
     </row>
     <row customHeight="1" r="14" ht="15.75">
-      <c s="6" r="B14"/>
+      <c t="s" s="4" r="A14">
+        <v>18</v>
+      </c>
+      <c t="s" s="6" r="B14">
+        <v>19</v>
+      </c>
     </row>
     <row customHeight="1" r="15" ht="15.75">
-      <c s="6" r="B15"/>
+      <c t="s" s="4" r="A15">
+        <v>20</v>
+      </c>
+      <c t="s" s="6" r="B15">
+        <v>21</v>
+      </c>
     </row>
     <row customHeight="1" r="16" ht="15.75">
-      <c s="6" r="B16"/>
+      <c t="s" s="4" r="A16">
+        <v>22</v>
+      </c>
+      <c t="s" s="6" r="B16">
+        <v>23</v>
+      </c>
     </row>
     <row customHeight="1" r="17" ht="15.75">
-      <c s="6" r="B17"/>
+      <c t="s" s="4" r="A17">
+        <v>24</v>
+      </c>
+      <c t="s" s="6" r="B17">
+        <v>25</v>
+      </c>
     </row>
     <row customHeight="1" r="18" ht="15.75">
-      <c s="6" r="B18"/>
+      <c s="7" r="B18"/>
     </row>
     <row customHeight="1" r="19" ht="15.75">
-      <c s="6" r="B19"/>
+      <c s="7" r="B19"/>
     </row>
     <row customHeight="1" r="20" ht="15.75">
-      <c s="6" r="B20"/>
+      <c s="7" r="B20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
